--- a/Output/Results_tentative.xlsx
+++ b/Output/Results_tentative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\FCI\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\FCI_Fin\food_system_btp\food_system_btp\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1015392-C0A2-4836-9957-AB8CB7ABDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{670EEFD8-B782-46BC-B034-BDF507E59021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB746AF4-7F70-4A73-9777-A903E56CA072}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F92D5222-A02D-477B-B120-4625CBB053A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,12 +381,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACAA928-4759-4B54-A6D5-3B34176A0449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FB680E-A61F-4502-8029-9E630794BB63}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
